--- a/biology/Médecine/Muscle_subcostal/Muscle_subcostal.xlsx
+++ b/biology/Médecine/Muscle_subcostal/Muscle_subcostal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles subcostaux sont des muscles fasciculaires de la paroi thoracique postérieure. Chacun de ces muscles a son origine sur la face interne d'une côte, et se termine sur la côte sous-jacente ou la suivante. Ces muscles sont innervés par les nerfs intercostaux correspondants, et ont pour action d'abaisser les côtes afin de faire une expiration forcée.
  Portail de l’anatomie   Portail de la médecine                    </t>
